--- a/2 Python Listings/Listings Output/Listing02.xlsx
+++ b/2 Python Listings/Listings Output/Listing02.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="K16" t="n">
